--- a/04 - PERKULIAHAN/PLOT MAHASISWA MATRIK/SEMESTER 2/PLOT MAHASISWA.xlsx
+++ b/04 - PERKULIAHAN/PLOT MAHASISWA MATRIK/SEMESTER 2/PLOT MAHASISWA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKADEMIK\TA 2016 - 2017\04 - PERKULIAHAN\PLOT MAHASISWA MATRIK\SEMESTER 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKADEMIK\TA 2016 - 2017\GIT\04 - PERKULIAHAN\PLOT MAHASISWA MATRIK\SEMESTER 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1978,9 +1978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8343,7 +8343,7 @@
       <c r="J42" s="43"/>
       <c r="K42" s="43"/>
       <c r="L42" s="43">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M42" s="44"/>
       <c r="N42" s="43"/>
@@ -8518,7 +8518,10 @@
       <c r="E46" s="61"/>
       <c r="H46" s="64"/>
       <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
+      <c r="L46" s="52">
+        <f>D42+L42+T42+AB42+AJ42</f>
+        <v>152</v>
+      </c>
       <c r="M46" s="61"/>
       <c r="N46" s="52"/>
       <c r="O46" s="52"/>
